--- a/refs/heads/rc2-ddcc/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/rc2-ddcc/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -394,7 +394,7 @@
 QuestionnaireAnswersForm Data</t>
   </si>
   <si>
-    <t xml:space="preserve">QuestionnaireResponse {https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCQuestionnaireResponse}
+    <t xml:space="preserve">QuestionnaireResponse {https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCQuestionnaireResponse}
 </t>
   </si>
   <si>

--- a/refs/heads/rc2-ddcc/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/rc2-ddcc/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -394,7 +394,7 @@
 QuestionnaireAnswersForm Data</t>
   </si>
   <si>
-    <t xml:space="preserve">QuestionnaireResponse {https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCQuestionnaireResponse}
+    <t xml:space="preserve">QuestionnaireResponse {https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCQuestionnaireResponse}
 </t>
   </si>
   <si>
